--- a/rules/new_rules.xlsx
+++ b/rules/new_rules.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanshengjia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanshengjia/GitHub/languagetool/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25600" windowHeight="18620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="578">
   <si>
     <t>a few,</t>
   </si>
@@ -2493,7 +2493,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="240" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2508,6 +2508,9 @@
       </c>
       <c r="E3" t="s">
         <v>296</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3409,27 +3412,27 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -3445,11 +3448,11 @@
       <c r="E69" t="s">
         <v>431</v>
       </c>
-      <c r="G69" t="s">
+      <c r="K69" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -3465,11 +3468,11 @@
       <c r="E70" t="s">
         <v>435</v>
       </c>
-      <c r="G70" t="s">
+      <c r="K70" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3485,16 +3488,16 @@
       <c r="E71" t="s">
         <v>438</v>
       </c>
-      <c r="G71" t="s">
+      <c r="K71" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3510,11 +3513,11 @@
       <c r="E73" t="s">
         <v>442</v>
       </c>
-      <c r="G73" t="s">
+      <c r="K73" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -3530,11 +3533,11 @@
       <c r="E74" t="s">
         <v>448</v>
       </c>
-      <c r="G74" t="s">
+      <c r="K74" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3585,12 +3588,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>460</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
